--- a/2022/data/processed/SCCOOS.xlsx
+++ b/2022/data/processed/SCCOOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathew.Biddle\Documents\GitProjects\ioos-asset-inventory\2022\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2AE9CD-6E16-4024-B39F-3E21DD2BC688}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EF0BF0-F763-4918-B2DB-FE4590F05C17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="185">
   <si>
     <t>Station ID</t>
   </si>
@@ -554,9 +554,6 @@
     <t>mooring</t>
   </si>
   <si>
-    <t xml:space="preserve">U - no longer funded </t>
-  </si>
-  <si>
     <t>Ocean Time Series Group</t>
   </si>
   <si>
@@ -977,7 +974,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1002,7 +999,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2580,7 +2577,7 @@
         <v>2006</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>23</v>
@@ -2598,13 +2595,13 @@
         <v>25</v>
       </c>
       <c r="P25" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="R25" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="R25" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
@@ -2627,10 +2624,10 @@
         <v>17</v>
       </c>
       <c r="D26" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="F26" s="23">
         <v>32.938000000000002</v>
@@ -2639,7 +2636,7 @@
         <v>-117.32599999999999</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I26" s="6">
         <v>2020</v>
@@ -2663,13 +2660,13 @@
         <v>25</v>
       </c>
       <c r="P26" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="R26" s="17" t="s">
         <v>183</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>184</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
